--- a/DataSheet.xlsx
+++ b/DataSheet.xlsx
@@ -9,41 +9,43 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4090" tabRatio="993" firstSheet="20" activeTab="29"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4090" tabRatio="993"/>
   </bookViews>
   <sheets>
-    <sheet name="Austria" sheetId="2" r:id="rId1"/>
-    <sheet name="Belgium" sheetId="3" r:id="rId2"/>
-    <sheet name="Bulgaria" sheetId="4" r:id="rId3"/>
-    <sheet name="Croatia" sheetId="5" r:id="rId4"/>
-    <sheet name="Cyprus" sheetId="6" r:id="rId5"/>
-    <sheet name="Czech Republic" sheetId="8" r:id="rId6"/>
-    <sheet name="Denmark" sheetId="7" r:id="rId7"/>
-    <sheet name="Estonia" sheetId="9" r:id="rId8"/>
-    <sheet name="Finland" sheetId="10" r:id="rId9"/>
-    <sheet name="France" sheetId="11" r:id="rId10"/>
-    <sheet name="Germany" sheetId="12" r:id="rId11"/>
-    <sheet name="Greece" sheetId="13" r:id="rId12"/>
-    <sheet name="Hungary" sheetId="14" r:id="rId13"/>
-    <sheet name="Iceland" sheetId="15" r:id="rId14"/>
-    <sheet name="Ireland" sheetId="16" r:id="rId15"/>
-    <sheet name="Italy" sheetId="17" r:id="rId16"/>
-    <sheet name="Latvia" sheetId="18" r:id="rId17"/>
-    <sheet name="Lithuania" sheetId="19" r:id="rId18"/>
-    <sheet name="Luxembourg" sheetId="20" r:id="rId19"/>
-    <sheet name="Malta" sheetId="21" r:id="rId20"/>
-    <sheet name="Netherlands" sheetId="22" r:id="rId21"/>
-    <sheet name="Norway" sheetId="23" r:id="rId22"/>
-    <sheet name="Poland" sheetId="24" r:id="rId23"/>
-    <sheet name="Portugal" sheetId="25" r:id="rId24"/>
-    <sheet name="Romania" sheetId="26" r:id="rId25"/>
-    <sheet name="Slovakia" sheetId="27" r:id="rId26"/>
-    <sheet name="Slovenia" sheetId="28" r:id="rId27"/>
-    <sheet name="Spain" sheetId="29" r:id="rId28"/>
-    <sheet name="Sweden" sheetId="30" r:id="rId29"/>
-    <sheet name="UK" sheetId="1" r:id="rId30"/>
+    <sheet name="United States" sheetId="32" r:id="rId1"/>
+    <sheet name="Austria" sheetId="2" r:id="rId2"/>
+    <sheet name="Belgium" sheetId="3" r:id="rId3"/>
+    <sheet name="Bulgaria" sheetId="4" r:id="rId4"/>
+    <sheet name="Croatia" sheetId="5" r:id="rId5"/>
+    <sheet name="Cyprus" sheetId="6" r:id="rId6"/>
+    <sheet name="Czech Republic" sheetId="8" r:id="rId7"/>
+    <sheet name="Denmark" sheetId="7" r:id="rId8"/>
+    <sheet name="Estonia" sheetId="9" r:id="rId9"/>
+    <sheet name="Finland" sheetId="10" r:id="rId10"/>
+    <sheet name="France" sheetId="11" r:id="rId11"/>
+    <sheet name="Germany" sheetId="12" r:id="rId12"/>
+    <sheet name="Greece" sheetId="13" r:id="rId13"/>
+    <sheet name="Hungary" sheetId="14" r:id="rId14"/>
+    <sheet name="Iceland" sheetId="15" r:id="rId15"/>
+    <sheet name="Ireland" sheetId="16" r:id="rId16"/>
+    <sheet name="Italy" sheetId="17" r:id="rId17"/>
+    <sheet name="Latvia" sheetId="18" r:id="rId18"/>
+    <sheet name="Lithuania" sheetId="19" r:id="rId19"/>
+    <sheet name="Luxembourg" sheetId="20" r:id="rId20"/>
+    <sheet name="Malta" sheetId="21" r:id="rId21"/>
+    <sheet name="Netherlands" sheetId="22" r:id="rId22"/>
+    <sheet name="Norway" sheetId="23" r:id="rId23"/>
+    <sheet name="Poland" sheetId="24" r:id="rId24"/>
+    <sheet name="Portugal" sheetId="25" r:id="rId25"/>
+    <sheet name="Romania" sheetId="26" r:id="rId26"/>
+    <sheet name="Slovakia" sheetId="27" r:id="rId27"/>
+    <sheet name="Slovenia" sheetId="28" r:id="rId28"/>
+    <sheet name="Spain" sheetId="29" r:id="rId29"/>
+    <sheet name="Sweden" sheetId="30" r:id="rId30"/>
+    <sheet name="UK" sheetId="1" r:id="rId31"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -53,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="7">
   <si>
     <t>Year</t>
   </si>
@@ -65,6 +67,15 @@
   </si>
   <si>
     <t>Resistance</t>
+  </si>
+  <si>
+    <t>Consumption*</t>
+  </si>
+  <si>
+    <t>*Standard units/1000 population</t>
+  </si>
+  <si>
+    <t>resistancemap.cddep.org/AntibioticUse.php</t>
   </si>
 </sst>
 </file>
@@ -424,12 +435,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor theme="9"/>
+    <tabColor theme="8"/>
   </sheetPr>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -437,112 +448,139 @@
     <col min="1" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1">
+        <v>2000</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2001</v>
+      </c>
+      <c r="D1" s="1">
+        <v>2002</v>
+      </c>
+      <c r="E1" s="1">
+        <v>2003</v>
+      </c>
+      <c r="F1" s="1">
+        <v>2004</v>
+      </c>
+      <c r="G1" s="1">
         <v>2005</v>
       </c>
-      <c r="C1" s="1">
+      <c r="H1" s="1">
         <v>2006</v>
       </c>
-      <c r="D1" s="1">
+      <c r="I1" s="1">
         <v>2007</v>
       </c>
-      <c r="E1" s="1">
+      <c r="J1" s="1">
         <v>2008</v>
       </c>
-      <c r="F1" s="1">
+      <c r="K1" s="1">
         <v>2009</v>
       </c>
-      <c r="G1" s="1">
+      <c r="L1" s="1">
         <v>2010</v>
       </c>
-      <c r="H1" s="1">
+      <c r="M1" s="1">
         <v>2011</v>
       </c>
-      <c r="I1" s="1">
+      <c r="N1" s="1">
         <v>2012</v>
       </c>
-      <c r="J1" s="1">
-        <v>2013</v>
-      </c>
-      <c r="K1" s="1">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1">
-        <v>1.1E-4</v>
+        <v>28</v>
       </c>
       <c r="C2" s="1">
-        <v>1.4999999999999999E-4</v>
+        <v>33</v>
       </c>
       <c r="D2" s="1">
-        <v>2.0000000000000001E-4</v>
+        <v>40</v>
       </c>
       <c r="E2" s="1">
-        <v>2.7999999999999998E-4</v>
+        <v>41</v>
       </c>
       <c r="F2" s="1">
-        <v>4.4999999999999999E-4</v>
+        <v>44</v>
       </c>
       <c r="G2" s="1">
-        <v>5.5000000000000003E-4</v>
+        <v>48</v>
       </c>
       <c r="H2" s="1">
-        <v>5.5000000000000003E-4</v>
+        <v>53</v>
       </c>
       <c r="I2" s="1">
-        <v>4.8999999999999998E-4</v>
+        <v>55</v>
       </c>
       <c r="J2" s="1">
-        <v>8.4999999999999995E-4</v>
+        <v>59</v>
       </c>
       <c r="K2" s="1">
-        <v>8.0000000000000004E-4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+        <v>62</v>
+      </c>
+      <c r="L2" s="1">
+        <v>63</v>
+      </c>
+      <c r="M2" s="1">
+        <v>66</v>
+      </c>
+      <c r="N2" s="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>80</v>
+        <v>3230</v>
       </c>
       <c r="C3" s="2">
-        <v>269</v>
+        <v>3459</v>
       </c>
       <c r="D3" s="2">
-        <v>306</v>
+        <v>3697</v>
       </c>
       <c r="E3" s="2">
-        <v>397</v>
+        <v>3733</v>
       </c>
       <c r="F3" s="2">
-        <v>463</v>
+        <v>4616</v>
       </c>
       <c r="G3" s="2">
-        <v>509</v>
+        <v>4696</v>
       </c>
       <c r="H3" s="2">
-        <v>610</v>
+        <v>4158</v>
       </c>
       <c r="I3" s="2">
-        <v>738</v>
+        <v>3732</v>
       </c>
       <c r="J3" s="2">
-        <v>910</v>
-      </c>
-      <c r="K3" s="2">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+        <v>3745</v>
+      </c>
+      <c r="K3" s="1">
+        <v>3286</v>
+      </c>
+      <c r="L3" s="1">
+        <v>3039</v>
+      </c>
+      <c r="M3" s="1">
+        <v>2503</v>
+      </c>
+      <c r="N3" s="1">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -553,7 +591,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="2">
         <v>0</v>
@@ -562,28 +600,50 @@
         <v>0</v>
       </c>
       <c r="G4" s="2">
-        <v>3</v>
+        <f>0.01*G3</f>
+        <v>46.96</v>
       </c>
       <c r="H4" s="2">
-        <v>2</v>
+        <f>0.01*H3</f>
+        <v>41.58</v>
       </c>
       <c r="I4" s="2">
-        <v>11</v>
+        <f>0.02*I3</f>
+        <v>74.64</v>
       </c>
       <c r="J4" s="2">
-        <v>13</v>
-      </c>
-      <c r="K4" s="2">
-        <v>7</v>
+        <f>0.05*J3</f>
+        <v>187.25</v>
+      </c>
+      <c r="K4" s="1">
+        <f>0.05*K3</f>
+        <v>164.3</v>
+      </c>
+      <c r="L4" s="1">
+        <f>0.05*L3</f>
+        <v>151.95000000000002</v>
+      </c>
+      <c r="M4" s="1">
+        <f>0.07*M3</f>
+        <v>175.21</v>
+      </c>
+      <c r="N4" s="1">
+        <f>0.1*N3</f>
+        <v>117.30000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -595,7 +655,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -646,31 +706,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5.0000000000000001E-4</v>
+        <v>1E-4</v>
       </c>
       <c r="D2">
-        <v>1.6999999999999999E-3</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>1.8E-3</v>
+        <v>1E-4</v>
       </c>
       <c r="F2">
-        <v>1.8E-3</v>
+        <v>1E-4</v>
       </c>
       <c r="G2">
-        <v>2E-3</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>3.0999999999999999E-3</v>
+        <v>1E-4</v>
       </c>
       <c r="I2">
-        <v>4.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>4.4000000000000003E-3</v>
+        <v>1E-4</v>
       </c>
       <c r="K2">
-        <v>4.4999999999999997E-3</v>
+        <v>2.0000000000000001E-4</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
@@ -678,34 +738,34 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>753</v>
+        <v>131</v>
       </c>
       <c r="C3" s="2">
-        <v>831</v>
+        <v>214</v>
       </c>
       <c r="D3" s="2">
-        <v>1057</v>
+        <v>251</v>
       </c>
       <c r="E3" s="2">
-        <v>1021</v>
+        <v>280</v>
       </c>
       <c r="F3" s="2">
-        <v>1268</v>
+        <v>351</v>
       </c>
       <c r="G3" s="2">
-        <v>1432</v>
+        <v>391</v>
       </c>
       <c r="H3" s="2">
-        <v>1640</v>
+        <v>404</v>
       </c>
       <c r="I3" s="2">
-        <v>1627</v>
+        <v>536</v>
       </c>
       <c r="J3" s="2">
-        <v>1842</v>
+        <v>550</v>
       </c>
       <c r="K3" s="2">
-        <v>2103</v>
+        <v>583</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
@@ -713,34 +773,34 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="2">
         <v>0</v>
       </c>
       <c r="D4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G4" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H4" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" s="2">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="J4" s="2">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="K4" s="2">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -749,6 +809,167 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
+  <dimension ref="A1:K4"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="16384" width="9.1796875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>2005</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2006</v>
+      </c>
+      <c r="D1" s="1">
+        <v>2007</v>
+      </c>
+      <c r="E1" s="1">
+        <v>2008</v>
+      </c>
+      <c r="F1" s="1">
+        <v>2009</v>
+      </c>
+      <c r="G1" s="1">
+        <v>2010</v>
+      </c>
+      <c r="H1" s="1">
+        <v>2011</v>
+      </c>
+      <c r="I1" s="1">
+        <v>2012</v>
+      </c>
+      <c r="J1" s="1">
+        <v>2013</v>
+      </c>
+      <c r="K1" s="1">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="D2">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="E2">
+        <v>1.8E-3</v>
+      </c>
+      <c r="F2">
+        <v>1.8E-3</v>
+      </c>
+      <c r="G2">
+        <v>2E-3</v>
+      </c>
+      <c r="H2">
+        <v>3.0999999999999999E-3</v>
+      </c>
+      <c r="I2">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="J2">
+        <v>4.4000000000000003E-3</v>
+      </c>
+      <c r="K2">
+        <v>4.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>753</v>
+      </c>
+      <c r="C3" s="2">
+        <v>831</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1057</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1021</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1268</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1432</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1640</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1627</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1842</v>
+      </c>
+      <c r="K3" s="2">
+        <v>2103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
+        <v>6</v>
+      </c>
+      <c r="G4" s="2">
+        <v>4</v>
+      </c>
+      <c r="H4" s="2">
+        <v>2</v>
+      </c>
+      <c r="I4" s="2">
+        <v>17</v>
+      </c>
+      <c r="J4" s="2">
+        <v>21</v>
+      </c>
+      <c r="K4" s="2">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9"/>
@@ -909,7 +1130,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9"/>
@@ -1070,7 +1291,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9"/>
@@ -1231,7 +1452,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K4"/>
   <sheetViews>
@@ -1373,7 +1594,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9"/>
@@ -1534,7 +1755,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7"/>
@@ -1691,7 +1912,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7"/>
@@ -1848,7 +2069,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7"/>
@@ -2003,7 +2224,173 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
+  <dimension ref="A1:K4"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E9" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="16384" width="9.1796875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>2005</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2006</v>
+      </c>
+      <c r="D1" s="1">
+        <v>2007</v>
+      </c>
+      <c r="E1" s="1">
+        <v>2008</v>
+      </c>
+      <c r="F1" s="1">
+        <v>2009</v>
+      </c>
+      <c r="G1" s="1">
+        <v>2010</v>
+      </c>
+      <c r="H1" s="1">
+        <v>2011</v>
+      </c>
+      <c r="I1" s="1">
+        <v>2012</v>
+      </c>
+      <c r="J1" s="1">
+        <v>2013</v>
+      </c>
+      <c r="K1" s="1">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1.1E-4</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1.4999999999999999E-4</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2.7999999999999998E-4</v>
+      </c>
+      <c r="F2" s="1">
+        <v>4.4999999999999999E-4</v>
+      </c>
+      <c r="G2" s="1">
+        <v>5.5000000000000003E-4</v>
+      </c>
+      <c r="H2" s="1">
+        <v>5.5000000000000003E-4</v>
+      </c>
+      <c r="I2" s="1">
+        <v>4.8999999999999998E-4</v>
+      </c>
+      <c r="J2" s="1">
+        <v>8.4999999999999995E-4</v>
+      </c>
+      <c r="K2" s="1">
+        <v>8.0000000000000004E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>80</v>
+      </c>
+      <c r="C3" s="2">
+        <v>269</v>
+      </c>
+      <c r="D3" s="2">
+        <v>306</v>
+      </c>
+      <c r="E3" s="2">
+        <v>397</v>
+      </c>
+      <c r="F3" s="2">
+        <v>463</v>
+      </c>
+      <c r="G3" s="2">
+        <v>509</v>
+      </c>
+      <c r="H3" s="2">
+        <v>610</v>
+      </c>
+      <c r="I3" s="2">
+        <v>738</v>
+      </c>
+      <c r="J3" s="2">
+        <v>910</v>
+      </c>
+      <c r="K3" s="2">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>3</v>
+      </c>
+      <c r="H4" s="2">
+        <v>2</v>
+      </c>
+      <c r="I4" s="2">
+        <v>11</v>
+      </c>
+      <c r="J4" s="2">
+        <v>13</v>
+      </c>
+      <c r="K4" s="2">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7"/>
@@ -2160,149 +2547,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="16384" width="9.1796875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1">
-        <v>2005</v>
-      </c>
-      <c r="C1" s="1">
-        <v>2006</v>
-      </c>
-      <c r="D1" s="1">
-        <v>2007</v>
-      </c>
-      <c r="E1" s="1">
-        <v>2008</v>
-      </c>
-      <c r="F1" s="1">
-        <v>2009</v>
-      </c>
-      <c r="G1" s="1">
-        <v>2010</v>
-      </c>
-      <c r="H1" s="1">
-        <v>2011</v>
-      </c>
-      <c r="I1" s="1">
-        <v>2012</v>
-      </c>
-      <c r="J1" s="1">
-        <v>2013</v>
-      </c>
-      <c r="K1" s="1">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="C2">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="D2">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="E2">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="F2">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="G2">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="H2">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="I2">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="J2">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="K2">
-        <v>2.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2">
-        <v>83</v>
-      </c>
-      <c r="G3" s="2">
-        <v>116</v>
-      </c>
-      <c r="H3" s="2">
-        <v>646</v>
-      </c>
-      <c r="I3" s="2">
-        <v>545</v>
-      </c>
-      <c r="J3" s="2">
-        <v>618</v>
-      </c>
-      <c r="K3" s="2">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2">
-        <v>1</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2">
-        <v>2</v>
-      </c>
-      <c r="I4" s="2">
-        <v>5</v>
-      </c>
-      <c r="J4" s="2">
-        <v>6</v>
-      </c>
-      <c r="K4" s="2">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7"/>
@@ -2459,7 +2704,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9"/>
@@ -2620,7 +2865,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7"/>
@@ -2849,7 +3094,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7"/>
@@ -3004,7 +3249,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7"/>
@@ -3155,7 +3400,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K4"/>
   <sheetViews>
@@ -3303,7 +3548,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K4"/>
   <sheetViews>
@@ -3435,7 +3680,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9"/>
@@ -3596,7 +3841,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9"/>
@@ -3757,15 +4002,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="9"/>
-  </sheetPr>
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3813,19 +4055,19 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1.2999999999999999E-3</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="C2">
-        <v>8.9999999999999998E-4</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="D2">
-        <v>1E-3</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="E2">
-        <v>1.1000000000000001E-3</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="F2">
-        <v>8.0000000000000004E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="G2">
         <v>2.0000000000000001E-4</v>
@@ -3840,77 +4082,61 @@
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="K2">
-        <v>2.9999999999999997E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
-        <v>16</v>
-      </c>
-      <c r="C3" s="2">
-        <v>3</v>
-      </c>
-      <c r="D3" s="2">
-        <v>525</v>
-      </c>
-      <c r="E3" s="2">
-        <v>639</v>
-      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
       <c r="F3" s="2">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="G3" s="2">
-        <v>708</v>
+        <v>116</v>
       </c>
       <c r="H3" s="2">
-        <v>941</v>
+        <v>646</v>
       </c>
       <c r="I3" s="2">
-        <v>977</v>
+        <v>545</v>
       </c>
       <c r="J3" s="2">
-        <v>1269</v>
+        <v>618</v>
       </c>
       <c r="K3" s="2">
-        <v>978</v>
+        <v>429</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1</v>
-      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
       <c r="F4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H4" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J4" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K4" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -3918,7 +4144,335 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
+  <dimension ref="A1:K4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="16384" width="9.1796875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>2005</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2006</v>
+      </c>
+      <c r="D1" s="1">
+        <v>2007</v>
+      </c>
+      <c r="E1" s="1">
+        <v>2008</v>
+      </c>
+      <c r="F1" s="1">
+        <v>2009</v>
+      </c>
+      <c r="G1" s="1">
+        <v>2010</v>
+      </c>
+      <c r="H1" s="1">
+        <v>2011</v>
+      </c>
+      <c r="I1" s="1">
+        <v>2012</v>
+      </c>
+      <c r="J1" s="1">
+        <v>2013</v>
+      </c>
+      <c r="K1" s="1">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="C2">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="D2">
+        <v>1E-3</v>
+      </c>
+      <c r="E2">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="F2">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="G2">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="H2">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="I2">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="J2">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="K2">
+        <v>2.9999999999999997E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>16</v>
+      </c>
+      <c r="C3" s="2">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2">
+        <v>525</v>
+      </c>
+      <c r="E3" s="2">
+        <v>639</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2">
+        <v>708</v>
+      </c>
+      <c r="H3" s="2">
+        <v>941</v>
+      </c>
+      <c r="I3" s="2">
+        <v>977</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1269</v>
+      </c>
+      <c r="K3" s="2">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>3</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
+  <dimension ref="A1:K4"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1025" width="11.453125" style="1"/>
+    <col min="1026" max="16384" width="9.1796875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>2005</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2006</v>
+      </c>
+      <c r="D1" s="1">
+        <v>2007</v>
+      </c>
+      <c r="E1" s="1">
+        <v>2008</v>
+      </c>
+      <c r="F1" s="1">
+        <v>2009</v>
+      </c>
+      <c r="G1" s="1">
+        <v>2010</v>
+      </c>
+      <c r="H1" s="1">
+        <v>2011</v>
+      </c>
+      <c r="I1" s="1">
+        <v>2012</v>
+      </c>
+      <c r="J1" s="1">
+        <v>2013</v>
+      </c>
+      <c r="K1" s="1">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="H2" s="1">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="I2" s="1">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="J2" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="K2" s="1">
+        <v>9.5999999999999992E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>275</v>
+      </c>
+      <c r="C3" s="1">
+        <v>286</v>
+      </c>
+      <c r="D3" s="1">
+        <v>302</v>
+      </c>
+      <c r="E3" s="1">
+        <v>242</v>
+      </c>
+      <c r="F3" s="1">
+        <v>591</v>
+      </c>
+      <c r="G3" s="1">
+        <v>677</v>
+      </c>
+      <c r="H3" s="1">
+        <v>825</v>
+      </c>
+      <c r="I3" s="1">
+        <v>888</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1051</v>
+      </c>
+      <c r="K3" s="1">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1">
+        <v>3</v>
+      </c>
+      <c r="H4" s="1">
+        <v>4</v>
+      </c>
+      <c r="I4" s="1">
+        <v>8</v>
+      </c>
+      <c r="J4" s="1">
+        <v>7</v>
+      </c>
+      <c r="K4" s="1">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9"/>
@@ -4079,174 +4633,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="9"/>
-  </sheetPr>
-  <dimension ref="A1:K4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1025" width="11.453125" style="1"/>
-    <col min="1026" max="16384" width="9.1796875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1">
-        <v>2005</v>
-      </c>
-      <c r="C1" s="1">
-        <v>2006</v>
-      </c>
-      <c r="D1" s="1">
-        <v>2007</v>
-      </c>
-      <c r="E1" s="1">
-        <v>2008</v>
-      </c>
-      <c r="F1" s="1">
-        <v>2009</v>
-      </c>
-      <c r="G1" s="1">
-        <v>2010</v>
-      </c>
-      <c r="H1" s="1">
-        <v>2011</v>
-      </c>
-      <c r="I1" s="1">
-        <v>2012</v>
-      </c>
-      <c r="J1" s="1">
-        <v>2013</v>
-      </c>
-      <c r="K1" s="1">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1E-4</v>
-      </c>
-      <c r="D2" s="1">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="E2" s="1">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="F2" s="1">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="G2" s="1">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="H2" s="1">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="I2" s="1">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="J2" s="1">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="K2" s="1">
-        <v>9.5999999999999992E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>275</v>
-      </c>
-      <c r="C3" s="1">
-        <v>286</v>
-      </c>
-      <c r="D3" s="1">
-        <v>302</v>
-      </c>
-      <c r="E3" s="1">
-        <v>242</v>
-      </c>
-      <c r="F3" s="1">
-        <v>591</v>
-      </c>
-      <c r="G3" s="1">
-        <v>677</v>
-      </c>
-      <c r="H3" s="1">
-        <v>825</v>
-      </c>
-      <c r="I3" s="1">
-        <v>888</v>
-      </c>
-      <c r="J3" s="1">
-        <v>1051</v>
-      </c>
-      <c r="K3" s="1">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1">
-        <v>3</v>
-      </c>
-      <c r="F4" s="1">
-        <v>3</v>
-      </c>
-      <c r="G4" s="1">
-        <v>3</v>
-      </c>
-      <c r="H4" s="1">
-        <v>4</v>
-      </c>
-      <c r="I4" s="1">
-        <v>8</v>
-      </c>
-      <c r="J4" s="1">
-        <v>7</v>
-      </c>
-      <c r="K4" s="1">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K4"/>
   <sheetViews>
@@ -4384,7 +4771,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7"/>
@@ -4543,7 +4930,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9"/>
@@ -4704,7 +5091,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7"/>
@@ -4861,7 +5248,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9"/>
@@ -5020,165 +5407,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="9"/>
-  </sheetPr>
-  <dimension ref="A1:K4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="16384" width="9.1796875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1">
-        <v>2005</v>
-      </c>
-      <c r="C1" s="1">
-        <v>2006</v>
-      </c>
-      <c r="D1" s="1">
-        <v>2007</v>
-      </c>
-      <c r="E1" s="1">
-        <v>2008</v>
-      </c>
-      <c r="F1" s="1">
-        <v>2009</v>
-      </c>
-      <c r="G1" s="1">
-        <v>2010</v>
-      </c>
-      <c r="H1" s="1">
-        <v>2011</v>
-      </c>
-      <c r="I1" s="1">
-        <v>2012</v>
-      </c>
-      <c r="J1" s="1">
-        <v>2013</v>
-      </c>
-      <c r="K1" s="1">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>1E-4</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>1E-4</v>
-      </c>
-      <c r="F2">
-        <v>1E-4</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>1E-4</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>1E-4</v>
-      </c>
-      <c r="K2">
-        <v>2.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
-        <v>131</v>
-      </c>
-      <c r="C3" s="2">
-        <v>214</v>
-      </c>
-      <c r="D3" s="2">
-        <v>251</v>
-      </c>
-      <c r="E3" s="2">
-        <v>280</v>
-      </c>
-      <c r="F3" s="2">
-        <v>351</v>
-      </c>
-      <c r="G3" s="2">
-        <v>391</v>
-      </c>
-      <c r="H3" s="2">
-        <v>404</v>
-      </c>
-      <c r="I3" s="2">
-        <v>536</v>
-      </c>
-      <c r="J3" s="2">
-        <v>550</v>
-      </c>
-      <c r="K3" s="2">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2">
-        <v>2</v>
-      </c>
-      <c r="G4" s="2">
-        <v>1</v>
-      </c>
-      <c r="H4" s="2">
-        <v>1</v>
-      </c>
-      <c r="I4" s="2">
-        <v>0</v>
-      </c>
-      <c r="J4" s="2">
-        <v>0</v>
-      </c>
-      <c r="K4" s="2">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/DataSheet.xlsx
+++ b/DataSheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4090" tabRatio="993"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4090" tabRatio="993" firstSheet="6" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="United States" sheetId="32" r:id="rId1"/>
@@ -45,7 +45,6 @@
     <sheet name="UK" sheetId="1" r:id="rId31"/>
   </sheets>
   <calcPr calcId="171027"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -55,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="8">
   <si>
     <t>Year</t>
   </si>
@@ -76,6 +75,9 @@
   </si>
   <si>
     <t>resistancemap.cddep.org/AntibioticUse.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Consumption </t>
   </si>
 </sst>
 </file>
@@ -439,8 +441,8 @@
   </sheetPr>
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="M40" sqref="M40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -813,15 +815,16 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="17.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
@@ -962,6 +965,41 @@
       </c>
       <c r="K4" s="2">
         <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1">
+        <v>28.9</v>
+      </c>
+      <c r="C5" s="1">
+        <v>27.9</v>
+      </c>
+      <c r="D5" s="1">
+        <v>28.6</v>
+      </c>
+      <c r="E5" s="1">
+        <v>28.1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>29.6</v>
+      </c>
+      <c r="G5" s="1">
+        <v>28.2</v>
+      </c>
+      <c r="H5" s="1">
+        <v>28.7</v>
+      </c>
+      <c r="I5" s="1">
+        <v>29.7</v>
+      </c>
+      <c r="J5" s="1">
+        <v>30.1</v>
+      </c>
+      <c r="K5" s="1">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
